--- a/2025/Training Materials/Training Content.xlsx
+++ b/2025/Training Materials/Training Content.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29212"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://gxportal-my.sharepoint.com/personal/mbantwal_galaxe_com/Documents/Documents/Trainings/Training Materials/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="43" documentId="13_ncr:1_{9823DB04-658F-4CBC-BF5A-C58F12C871AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6DD83076-4FC3-4789-8D09-076887C5D3DF}"/>
+  <xr:revisionPtr revIDLastSave="105" documentId="13_ncr:1_{9823DB04-658F-4CBC-BF5A-C58F12C871AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{335CD529-7DA9-444D-9763-989E8AA5546E}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14616" xr2:uid="{55D5119D-4DF1-4C86-92E5-3BF6CE92DE04}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="152">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="286" uniqueCount="171">
   <si>
     <t>#</t>
   </si>
@@ -240,12 +240,12 @@
     <t>Position CSS</t>
   </si>
   <si>
+    <t>z-index</t>
+  </si>
+  <si>
     <t>--</t>
   </si>
   <si>
-    <t>z-index</t>
-  </si>
-  <si>
     <t>Overflow</t>
   </si>
   <si>
@@ -493,13 +493,70 @@
   </si>
   <si>
     <t>reduce Function</t>
+  </si>
+  <si>
+    <t>CSS Tutorials</t>
+  </si>
+  <si>
+    <t>Ways to apply CSS</t>
+  </si>
+  <si>
+    <t>Color Code</t>
+  </si>
+  <si>
+    <t>Borders</t>
+  </si>
+  <si>
+    <t>Margins &amp; Paddings</t>
+  </si>
+  <si>
+    <t>Height &amp; Width</t>
+  </si>
+  <si>
+    <t>Text Formattings</t>
+  </si>
+  <si>
+    <t>Fonts</t>
+  </si>
+  <si>
+    <t>Icons</t>
+  </si>
+  <si>
+    <t>Links &amp; Buttons</t>
+  </si>
+  <si>
+    <t>Tables</t>
+  </si>
+  <si>
+    <t>Z-Index</t>
+  </si>
+  <si>
+    <t>Transform Properties</t>
+  </si>
+  <si>
+    <t>CSS Navigation Bar</t>
+  </si>
+  <si>
+    <t>Gradients</t>
+  </si>
+  <si>
+    <t>Scroll Bars</t>
+  </si>
+  <si>
+    <t>Object Fit</t>
+  </si>
+  <si>
+    <t>Box Sizing</t>
+  </si>
+  <si>
+    <t>CSS Flexbox</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -592,7 +649,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="13">
+  <borders count="14">
     <border>
       <left/>
       <right/>
@@ -754,11 +811,20 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color theme="0"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="60">
+  <cellXfs count="62">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -913,11 +979,76 @@
     <xf numFmtId="0" fontId="2" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="31">
+  <dxfs count="36">
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="JetBrains Mono"/>
+        <family val="3"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="JetBrains Mono"/>
+        <family val="3"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="JetBrains Mono"/>
+        <family val="3"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="JetBrains Mono"/>
+        <family val="3"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <right style="medium">
+          <color theme="0"/>
+        </right>
+      </border>
+    </dxf>
     <dxf>
       <font>
         <strike val="0"/>
@@ -1300,13 +1431,6 @@
       </border>
     </dxf>
     <dxf>
-      <border outline="0">
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
       <border diagonalUp="0" diagonalDown="0">
         <left style="medium">
           <color theme="0"/>
@@ -1335,6 +1459,13 @@
         <family val="3"/>
         <scheme val="none"/>
       </font>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
     </dxf>
     <dxf>
       <font>
@@ -1719,13 +1850,6 @@
       </border>
     </dxf>
     <dxf>
-      <border outline="0">
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
       <font>
         <strike val="0"/>
         <outline val="0"/>
@@ -1739,6 +1863,13 @@
         <scheme val="none"/>
       </font>
       <alignment textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
     </dxf>
     <dxf>
       <font>
@@ -1788,29 +1919,43 @@
 </styleSheet>
 </file>
 
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{7EB64700-01B0-441F-B8C9-CD1DB601F210}" name="Table2" displayName="Table2" ref="A1:F73" headerRowCount="0" totalsRowShown="0" headerRowDxfId="30" dataDxfId="29" headerRowBorderDxfId="28">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{7EB64700-01B0-441F-B8C9-CD1DB601F210}" name="Table2" displayName="Table2" ref="A1:F73" headerRowCount="0" totalsRowShown="0" headerRowDxfId="35" dataDxfId="33" headerRowBorderDxfId="34">
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{B76A219D-5F4C-4EC0-A623-30FB66C0442C}" name="Column1" headerRowDxfId="27" dataDxfId="26"/>
-    <tableColumn id="2" xr3:uid="{2FF47FB3-B0A4-43E2-BF89-2C84130C08F9}" name="Column2" headerRowDxfId="25" dataDxfId="24"/>
-    <tableColumn id="3" xr3:uid="{C463600D-ECCF-495B-A2A9-E6F7042AF29B}" name="Column3" headerRowDxfId="23" dataDxfId="22"/>
-    <tableColumn id="4" xr3:uid="{290B5966-D44B-4DB0-B50E-7D32BABE221E}" name="Column4" headerRowDxfId="21" dataDxfId="20"/>
-    <tableColumn id="5" xr3:uid="{388C3131-CA94-45F7-8B0F-6D95810EB023}" name="Column5" headerRowDxfId="19" dataDxfId="18"/>
-    <tableColumn id="6" xr3:uid="{3E5549EB-645A-47D3-92BC-3F6DCB8C21B9}" name="Column6" headerRowDxfId="17" dataDxfId="16"/>
+    <tableColumn id="1" xr3:uid="{B76A219D-5F4C-4EC0-A623-30FB66C0442C}" name="Column1" headerRowDxfId="32" dataDxfId="31"/>
+    <tableColumn id="2" xr3:uid="{2FF47FB3-B0A4-43E2-BF89-2C84130C08F9}" name="Column2" headerRowDxfId="30" dataDxfId="29"/>
+    <tableColumn id="3" xr3:uid="{C463600D-ECCF-495B-A2A9-E6F7042AF29B}" name="Column3" headerRowDxfId="28" dataDxfId="27"/>
+    <tableColumn id="4" xr3:uid="{290B5966-D44B-4DB0-B50E-7D32BABE221E}" name="Column4" headerRowDxfId="26" dataDxfId="25"/>
+    <tableColumn id="5" xr3:uid="{388C3131-CA94-45F7-8B0F-6D95810EB023}" name="Column5" headerRowDxfId="24" dataDxfId="23"/>
+    <tableColumn id="6" xr3:uid="{3E5549EB-645A-47D3-92BC-3F6DCB8C21B9}" name="Column6" headerRowDxfId="22" dataDxfId="21"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleDark1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{5FFA66E5-4B53-45A7-9DF7-B7D6CFD953BE}" name="Table3" displayName="Table3" ref="A1:F67" headerRowCount="0" totalsRowShown="0" headerRowDxfId="15" dataDxfId="14" headerRowBorderDxfId="12" tableBorderDxfId="13">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{F8EB28BA-D8E5-4FE2-A8EF-47E050E5B55E}" name="Table1" displayName="Table1" ref="C76:D106" headerRowCount="0" totalsRowShown="0" headerRowDxfId="1" dataDxfId="0" tableBorderDxfId="4">
+  <tableColumns count="2">
+    <tableColumn id="1" xr3:uid="{992671E5-6DFB-4A1F-A905-F95C88723ADE}" name="Column1" dataDxfId="3"/>
+    <tableColumn id="2" xr3:uid="{69203563-EF36-4BF7-9E02-D31D4DE4D5EB}" name="Column2" dataDxfId="2"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleDark1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{5FFA66E5-4B53-45A7-9DF7-B7D6CFD953BE}" name="Table3" displayName="Table3" ref="A1:F67" headerRowCount="0" totalsRowShown="0" headerRowDxfId="20" dataDxfId="18" headerRowBorderDxfId="19" tableBorderDxfId="17">
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{352110DB-066B-4BCD-8B0A-2398D2A10B36}" name="Column1" headerRowDxfId="11" dataDxfId="10"/>
-    <tableColumn id="2" xr3:uid="{CCC38AE1-3F9B-477D-847D-B703E89A313D}" name="Column2" headerRowDxfId="9" dataDxfId="8"/>
-    <tableColumn id="3" xr3:uid="{B7E5BBA2-ED8D-4DA0-9E7A-D53DB4B117B6}" name="Column3" headerRowDxfId="7" dataDxfId="6"/>
-    <tableColumn id="4" xr3:uid="{FABB3088-D2E5-4108-BD00-D377DE77AFAF}" name="Column4" headerRowDxfId="5" dataDxfId="4"/>
-    <tableColumn id="5" xr3:uid="{634BD29E-DA1C-4CDA-857F-41FE813499EB}" name="Column5" headerRowDxfId="3" dataDxfId="2"/>
-    <tableColumn id="6" xr3:uid="{6AEB675A-CF75-4948-BEBD-2636E3389BCC}" name="Column6" headerRowDxfId="1" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{352110DB-066B-4BCD-8B0A-2398D2A10B36}" name="Column1" headerRowDxfId="16" dataDxfId="15"/>
+    <tableColumn id="2" xr3:uid="{CCC38AE1-3F9B-477D-847D-B703E89A313D}" name="Column2" headerRowDxfId="14" dataDxfId="13"/>
+    <tableColumn id="3" xr3:uid="{B7E5BBA2-ED8D-4DA0-9E7A-D53DB4B117B6}" name="Column3" headerRowDxfId="12" dataDxfId="11"/>
+    <tableColumn id="4" xr3:uid="{FABB3088-D2E5-4108-BD00-D377DE77AFAF}" name="Column4" headerRowDxfId="10" dataDxfId="9"/>
+    <tableColumn id="5" xr3:uid="{634BD29E-DA1C-4CDA-857F-41FE813499EB}" name="Column5" headerRowDxfId="8" dataDxfId="7"/>
+    <tableColumn id="6" xr3:uid="{6AEB675A-CF75-4948-BEBD-2636E3389BCC}" name="Column6" headerRowDxfId="6" dataDxfId="5"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleDark1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2133,24 +2278,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{81BF92F4-D95D-4725-A22C-4925729C0F5B}">
-  <dimension ref="A1:G73"/>
+  <dimension ref="A1:G106"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B43" zoomScale="86" workbookViewId="0">
-      <selection activeCell="D55" sqref="D55"/>
+    <sheetView tabSelected="1" topLeftCell="A68" zoomScale="86" workbookViewId="0">
+      <selection activeCell="D76" sqref="D76"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.45"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="2.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="40.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="63.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="23.42578125" style="6" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="30.140625" style="6" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="28.7109375" style="6" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="2.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="40.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="63.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="23.44140625" style="6" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="30.109375" style="6" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="28.6640625" style="6" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="15" thickBot="1">
+    <row r="1" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="26" t="s">
         <v>0</v>
       </c>
@@ -2171,7 +2316,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="15" thickBot="1">
+    <row r="2" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="28"/>
       <c r="B2" s="29" t="s">
         <v>6</v>
@@ -2184,7 +2329,7 @@
       <c r="F2" s="30"/>
       <c r="G2" s="4"/>
     </row>
-    <row r="3" spans="1:7" ht="16.149999999999999">
+    <row r="3" spans="1:7" ht="16.2" x14ac:dyDescent="0.3">
       <c r="A3" s="32">
         <v>1</v>
       </c>
@@ -2205,7 +2350,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="16.149999999999999">
+    <row r="4" spans="1:7" ht="16.2" x14ac:dyDescent="0.3">
       <c r="A4" s="35"/>
       <c r="B4" s="36"/>
       <c r="C4" s="36" t="s">
@@ -2216,7 +2361,7 @@
       <c r="F4" s="38"/>
       <c r="G4" s="53"/>
     </row>
-    <row r="5" spans="1:7" ht="16.899999999999999" thickBot="1">
+    <row r="5" spans="1:7" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="39"/>
       <c r="B5" s="40"/>
       <c r="C5" s="40" t="s">
@@ -2227,7 +2372,7 @@
       <c r="F5" s="42"/>
       <c r="G5" s="54"/>
     </row>
-    <row r="6" spans="1:7" ht="16.149999999999999">
+    <row r="6" spans="1:7" ht="16.2" x14ac:dyDescent="0.3">
       <c r="A6" s="32">
         <v>2</v>
       </c>
@@ -2248,7 +2393,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="16.149999999999999">
+    <row r="7" spans="1:7" ht="16.2" x14ac:dyDescent="0.3">
       <c r="A7" s="35"/>
       <c r="B7" s="44"/>
       <c r="C7" s="36" t="s">
@@ -2259,7 +2404,7 @@
       <c r="F7" s="38"/>
       <c r="G7" s="51"/>
     </row>
-    <row r="8" spans="1:7" ht="16.149999999999999">
+    <row r="8" spans="1:7" ht="16.2" x14ac:dyDescent="0.3">
       <c r="A8" s="35"/>
       <c r="B8" s="36"/>
       <c r="C8" s="36" t="s">
@@ -2270,7 +2415,7 @@
       <c r="F8" s="38"/>
       <c r="G8" s="51"/>
     </row>
-    <row r="9" spans="1:7" ht="16.149999999999999">
+    <row r="9" spans="1:7" ht="16.2" x14ac:dyDescent="0.3">
       <c r="A9" s="35"/>
       <c r="B9" s="36"/>
       <c r="C9" s="36" t="s">
@@ -2281,7 +2426,7 @@
       <c r="F9" s="38"/>
       <c r="G9" s="51"/>
     </row>
-    <row r="10" spans="1:7" ht="16.149999999999999">
+    <row r="10" spans="1:7" ht="16.2" x14ac:dyDescent="0.3">
       <c r="A10" s="35"/>
       <c r="B10" s="36"/>
       <c r="C10" s="36" t="s">
@@ -2292,7 +2437,7 @@
       <c r="F10" s="38"/>
       <c r="G10" s="51"/>
     </row>
-    <row r="11" spans="1:7" ht="16.149999999999999">
+    <row r="11" spans="1:7" ht="16.2" x14ac:dyDescent="0.3">
       <c r="A11" s="35"/>
       <c r="B11" s="36"/>
       <c r="C11" s="36" t="s">
@@ -2303,7 +2448,7 @@
       <c r="F11" s="38"/>
       <c r="G11" s="51"/>
     </row>
-    <row r="12" spans="1:7" ht="16.149999999999999">
+    <row r="12" spans="1:7" ht="16.2" x14ac:dyDescent="0.3">
       <c r="A12" s="35"/>
       <c r="B12" s="36"/>
       <c r="C12" s="36" t="s">
@@ -2314,7 +2459,7 @@
       <c r="F12" s="38"/>
       <c r="G12" s="51"/>
     </row>
-    <row r="13" spans="1:7" ht="16.149999999999999">
+    <row r="13" spans="1:7" ht="16.2" x14ac:dyDescent="0.3">
       <c r="A13" s="35"/>
       <c r="B13" s="36"/>
       <c r="C13" s="36" t="s">
@@ -2325,7 +2470,7 @@
       <c r="F13" s="38"/>
       <c r="G13" s="51"/>
     </row>
-    <row r="14" spans="1:7" ht="16.149999999999999">
+    <row r="14" spans="1:7" ht="16.2" x14ac:dyDescent="0.3">
       <c r="A14" s="35"/>
       <c r="B14" s="36"/>
       <c r="C14" s="36" t="s">
@@ -2336,7 +2481,7 @@
       <c r="F14" s="38"/>
       <c r="G14" s="51"/>
     </row>
-    <row r="15" spans="1:7" ht="16.149999999999999">
+    <row r="15" spans="1:7" ht="16.2" x14ac:dyDescent="0.3">
       <c r="A15" s="35"/>
       <c r="B15" s="36"/>
       <c r="C15" s="36" t="s">
@@ -2347,7 +2492,7 @@
       <c r="F15" s="38"/>
       <c r="G15" s="51"/>
     </row>
-    <row r="16" spans="1:7" ht="16.149999999999999">
+    <row r="16" spans="1:7" ht="16.2" x14ac:dyDescent="0.3">
       <c r="A16" s="35"/>
       <c r="B16" s="36"/>
       <c r="C16" s="36" t="s">
@@ -2358,7 +2503,7 @@
       <c r="F16" s="38"/>
       <c r="G16" s="51"/>
     </row>
-    <row r="17" spans="1:7" ht="16.149999999999999">
+    <row r="17" spans="1:7" ht="16.2" x14ac:dyDescent="0.3">
       <c r="A17" s="35"/>
       <c r="B17" s="36"/>
       <c r="C17" s="36" t="s">
@@ -2369,7 +2514,7 @@
       <c r="F17" s="38"/>
       <c r="G17" s="51"/>
     </row>
-    <row r="18" spans="1:7" ht="16.149999999999999">
+    <row r="18" spans="1:7" ht="16.2" x14ac:dyDescent="0.3">
       <c r="A18" s="35"/>
       <c r="B18" s="36"/>
       <c r="C18" s="36" t="s">
@@ -2380,7 +2525,7 @@
       <c r="F18" s="38"/>
       <c r="G18" s="51"/>
     </row>
-    <row r="19" spans="1:7" ht="16.149999999999999">
+    <row r="19" spans="1:7" ht="16.2" x14ac:dyDescent="0.3">
       <c r="A19" s="35"/>
       <c r="B19" s="36"/>
       <c r="C19" s="36" t="s">
@@ -2391,7 +2536,7 @@
       <c r="F19" s="38"/>
       <c r="G19" s="51"/>
     </row>
-    <row r="20" spans="1:7" ht="16.149999999999999">
+    <row r="20" spans="1:7" ht="16.2" x14ac:dyDescent="0.3">
       <c r="A20" s="35"/>
       <c r="B20" s="36"/>
       <c r="C20" s="36" t="s">
@@ -2402,7 +2547,7 @@
       <c r="F20" s="38"/>
       <c r="G20" s="51"/>
     </row>
-    <row r="21" spans="1:7" ht="16.899999999999999" thickBot="1">
+    <row r="21" spans="1:7" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A21" s="39"/>
       <c r="B21" s="40"/>
       <c r="C21" s="40" t="s">
@@ -2413,18 +2558,18 @@
       <c r="F21" s="42"/>
       <c r="G21" s="55"/>
     </row>
-    <row r="22" spans="1:7">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
       <c r="G22" s="50" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="23" spans="1:7">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
       <c r="G23" s="51"/>
     </row>
-    <row r="24" spans="1:7" ht="15" thickBot="1">
+    <row r="24" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="G24" s="51"/>
     </row>
-    <row r="25" spans="1:7" ht="16.149999999999999">
+    <row r="25" spans="1:7" ht="16.2" x14ac:dyDescent="0.3">
       <c r="A25" s="32">
         <v>4</v>
       </c>
@@ -2443,7 +2588,7 @@
       <c r="F25" s="34"/>
       <c r="G25" s="51"/>
     </row>
-    <row r="26" spans="1:7" ht="16.899999999999999" thickBot="1">
+    <row r="26" spans="1:7" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A26" s="39"/>
       <c r="B26" s="40"/>
       <c r="C26" s="40" t="s">
@@ -2454,7 +2599,7 @@
       <c r="F26" s="42"/>
       <c r="G26" s="55"/>
     </row>
-    <row r="27" spans="1:7" ht="16.899999999999999" thickBot="1">
+    <row r="27" spans="1:7" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A27" s="32">
         <v>5</v>
       </c>
@@ -2475,7 +2620,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="28" spans="1:7" ht="16.899999999999999" thickBot="1">
+    <row r="28" spans="1:7" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A28" s="35"/>
       <c r="B28" s="36"/>
       <c r="C28" s="36" t="s">
@@ -2488,7 +2633,7 @@
       </c>
       <c r="G28" s="53"/>
     </row>
-    <row r="29" spans="1:7" ht="16.899999999999999" thickBot="1">
+    <row r="29" spans="1:7" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A29" s="39"/>
       <c r="B29" s="40"/>
       <c r="C29" s="40" t="s">
@@ -2501,7 +2646,7 @@
       </c>
       <c r="G29" s="54"/>
     </row>
-    <row r="30" spans="1:7" ht="16.149999999999999">
+    <row r="30" spans="1:7" ht="16.2" x14ac:dyDescent="0.3">
       <c r="A30" s="32">
         <v>6</v>
       </c>
@@ -2522,7 +2667,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="31" spans="1:7" ht="16.149999999999999">
+    <row r="31" spans="1:7" ht="16.2" x14ac:dyDescent="0.3">
       <c r="A31" s="35"/>
       <c r="B31" s="36"/>
       <c r="C31" s="36" t="s">
@@ -2535,7 +2680,7 @@
       </c>
       <c r="G31" s="51"/>
     </row>
-    <row r="32" spans="1:7" ht="16.899999999999999" thickBot="1">
+    <row r="32" spans="1:7" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A32" s="39"/>
       <c r="B32" s="40"/>
       <c r="C32" s="40" t="s">
@@ -2546,7 +2691,7 @@
       <c r="F32" s="42"/>
       <c r="G32" s="55"/>
     </row>
-    <row r="33" spans="1:7" ht="16.899999999999999" thickBot="1">
+    <row r="33" spans="1:7" ht="16.8" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A33" s="28"/>
       <c r="B33" s="29" t="s">
         <v>44</v>
@@ -2559,7 +2704,7 @@
       <c r="F33" s="45"/>
       <c r="G33" s="4"/>
     </row>
-    <row r="34" spans="1:7" ht="16.149999999999999">
+    <row r="34" spans="1:7" ht="16.2" x14ac:dyDescent="0.3">
       <c r="A34" s="32"/>
       <c r="B34" s="33"/>
       <c r="C34" s="33" t="s">
@@ -2576,7 +2721,7 @@
       </c>
       <c r="G34" s="50"/>
     </row>
-    <row r="35" spans="1:7" ht="16.149999999999999">
+    <row r="35" spans="1:7" ht="16.2" x14ac:dyDescent="0.3">
       <c r="A35" s="35"/>
       <c r="B35" s="36"/>
       <c r="C35" s="36" t="s">
@@ -2589,7 +2734,7 @@
       <c r="F35" s="38"/>
       <c r="G35" s="51"/>
     </row>
-    <row r="36" spans="1:7" ht="16.149999999999999">
+    <row r="36" spans="1:7" ht="16.2" x14ac:dyDescent="0.3">
       <c r="A36" s="35"/>
       <c r="B36" s="44"/>
       <c r="C36" s="36" t="s">
@@ -2602,7 +2747,7 @@
       <c r="F36" s="38"/>
       <c r="G36" s="51"/>
     </row>
-    <row r="37" spans="1:7" ht="16.149999999999999">
+    <row r="37" spans="1:7" ht="16.2" x14ac:dyDescent="0.3">
       <c r="A37" s="35"/>
       <c r="B37" s="44"/>
       <c r="C37" s="36" t="s">
@@ -2615,7 +2760,7 @@
       <c r="F37" s="38"/>
       <c r="G37" s="51"/>
     </row>
-    <row r="38" spans="1:7" ht="16.149999999999999">
+    <row r="38" spans="1:7" ht="16.2" x14ac:dyDescent="0.3">
       <c r="A38" s="35"/>
       <c r="B38" s="44"/>
       <c r="C38" s="36" t="s">
@@ -2628,7 +2773,7 @@
       <c r="F38" s="38"/>
       <c r="G38" s="51"/>
     </row>
-    <row r="39" spans="1:7" ht="16.149999999999999">
+    <row r="39" spans="1:7" ht="16.2" x14ac:dyDescent="0.3">
       <c r="A39" s="35"/>
       <c r="B39" s="44"/>
       <c r="C39" s="36" t="s">
@@ -2641,7 +2786,7 @@
       <c r="F39" s="38"/>
       <c r="G39" s="51"/>
     </row>
-    <row r="40" spans="1:7" ht="16.149999999999999">
+    <row r="40" spans="1:7" ht="16.2" x14ac:dyDescent="0.3">
       <c r="A40" s="35"/>
       <c r="B40" s="44"/>
       <c r="C40" s="36" t="s">
@@ -2654,7 +2799,7 @@
       <c r="F40" s="38"/>
       <c r="G40" s="51"/>
     </row>
-    <row r="41" spans="1:7" ht="16.149999999999999">
+    <row r="41" spans="1:7" ht="16.2" x14ac:dyDescent="0.3">
       <c r="A41" s="35"/>
       <c r="B41" s="44"/>
       <c r="C41" s="36" t="s">
@@ -2667,7 +2812,7 @@
       <c r="F41" s="38"/>
       <c r="G41" s="51"/>
     </row>
-    <row r="42" spans="1:7" ht="16.149999999999999">
+    <row r="42" spans="1:7" ht="16.2" x14ac:dyDescent="0.3">
       <c r="A42" s="35"/>
       <c r="B42" s="44"/>
       <c r="C42" s="36" t="s">
@@ -2680,7 +2825,7 @@
       <c r="F42" s="38"/>
       <c r="G42" s="51"/>
     </row>
-    <row r="43" spans="1:7" ht="16.149999999999999">
+    <row r="43" spans="1:7" ht="16.2" x14ac:dyDescent="0.3">
       <c r="A43" s="35"/>
       <c r="B43" s="44"/>
       <c r="C43" s="36" t="s">
@@ -2693,7 +2838,7 @@
       <c r="F43" s="38"/>
       <c r="G43" s="51"/>
     </row>
-    <row r="44" spans="1:7" ht="16.149999999999999">
+    <row r="44" spans="1:7" ht="16.2" x14ac:dyDescent="0.3">
       <c r="A44" s="35"/>
       <c r="B44" s="44"/>
       <c r="C44" s="36" t="s">
@@ -2706,7 +2851,7 @@
       <c r="F44" s="38"/>
       <c r="G44" s="51"/>
     </row>
-    <row r="45" spans="1:7" ht="16.149999999999999">
+    <row r="45" spans="1:7" ht="16.2" x14ac:dyDescent="0.3">
       <c r="A45" s="35"/>
       <c r="B45" s="44"/>
       <c r="C45" s="36" t="s">
@@ -2719,7 +2864,7 @@
       <c r="F45" s="38"/>
       <c r="G45" s="51"/>
     </row>
-    <row r="46" spans="1:7" ht="16.149999999999999">
+    <row r="46" spans="1:7" ht="16.2" x14ac:dyDescent="0.3">
       <c r="A46" s="35"/>
       <c r="B46" s="44"/>
       <c r="C46" s="36" t="s">
@@ -2732,7 +2877,7 @@
       <c r="F46" s="38"/>
       <c r="G46" s="51"/>
     </row>
-    <row r="47" spans="1:7" ht="16.149999999999999">
+    <row r="47" spans="1:7" ht="16.2" x14ac:dyDescent="0.3">
       <c r="A47" s="35"/>
       <c r="B47" s="44"/>
       <c r="C47" s="36" t="s">
@@ -2745,7 +2890,7 @@
       <c r="F47" s="38"/>
       <c r="G47" s="51"/>
     </row>
-    <row r="48" spans="1:7" ht="16.149999999999999">
+    <row r="48" spans="1:7" ht="16.2" x14ac:dyDescent="0.3">
       <c r="A48" s="35"/>
       <c r="B48" s="44"/>
       <c r="C48" s="36" t="s">
@@ -2758,7 +2903,7 @@
       <c r="F48" s="38"/>
       <c r="G48" s="51"/>
     </row>
-    <row r="49" spans="1:7" ht="16.149999999999999">
+    <row r="49" spans="1:7" ht="16.2" x14ac:dyDescent="0.3">
       <c r="A49" s="35"/>
       <c r="B49" s="44"/>
       <c r="C49" s="36" t="s">
@@ -2771,7 +2916,7 @@
       <c r="F49" s="38"/>
       <c r="G49" s="51"/>
     </row>
-    <row r="50" spans="1:7" ht="16.149999999999999">
+    <row r="50" spans="1:7" ht="16.2" x14ac:dyDescent="0.3">
       <c r="A50" s="35"/>
       <c r="B50" s="44"/>
       <c r="C50" s="36" t="s">
@@ -2784,7 +2929,7 @@
       <c r="F50" s="38"/>
       <c r="G50" s="51"/>
     </row>
-    <row r="51" spans="1:7" ht="18">
+    <row r="51" spans="1:7" ht="16.2" x14ac:dyDescent="0.3">
       <c r="A51" s="35"/>
       <c r="B51" s="44"/>
       <c r="C51" s="36" t="s">
@@ -2797,7 +2942,7 @@
       <c r="F51" s="38"/>
       <c r="G51" s="51"/>
     </row>
-    <row r="52" spans="1:7" ht="18">
+    <row r="52" spans="1:7" ht="16.2" x14ac:dyDescent="0.3">
       <c r="A52" s="35"/>
       <c r="B52" s="44"/>
       <c r="C52" s="36" t="s">
@@ -2810,7 +2955,7 @@
       <c r="F52" s="38"/>
       <c r="G52" s="51"/>
     </row>
-    <row r="53" spans="1:7" ht="16.149999999999999">
+    <row r="53" spans="1:7" ht="16.2" x14ac:dyDescent="0.3">
       <c r="A53" s="35"/>
       <c r="B53" s="44"/>
       <c r="C53" s="36" t="s">
@@ -2823,85 +2968,85 @@
       <c r="F53" s="38"/>
       <c r="G53" s="51"/>
     </row>
-    <row r="54" spans="1:7" ht="16.149999999999999">
+    <row r="54" spans="1:7" ht="16.2" x14ac:dyDescent="0.3">
       <c r="A54" s="35"/>
       <c r="B54" s="44"/>
       <c r="C54" s="36" t="s">
         <v>66</v>
       </c>
       <c r="D54" s="37" t="s">
-        <v>67</v>
+        <v>46</v>
       </c>
       <c r="E54" s="38"/>
       <c r="F54" s="38"/>
       <c r="G54" s="51"/>
     </row>
-    <row r="55" spans="1:7" ht="16.149999999999999">
+    <row r="55" spans="1:7" ht="16.2" x14ac:dyDescent="0.3">
       <c r="A55" s="35"/>
       <c r="B55" s="44"/>
       <c r="C55" s="36" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D55" s="37" t="s">
-        <v>67</v>
+        <v>46</v>
       </c>
       <c r="E55" s="38"/>
       <c r="F55" s="38"/>
       <c r="G55" s="51"/>
     </row>
-    <row r="56" spans="1:7" ht="16.149999999999999">
+    <row r="56" spans="1:7" ht="16.2" x14ac:dyDescent="0.3">
       <c r="A56" s="35"/>
       <c r="B56" s="44"/>
       <c r="C56" s="36" t="s">
         <v>69</v>
       </c>
       <c r="D56" s="37" t="s">
-        <v>67</v>
+        <v>46</v>
       </c>
       <c r="E56" s="38"/>
       <c r="F56" s="38"/>
       <c r="G56" s="51"/>
     </row>
-    <row r="57" spans="1:7" ht="16.149999999999999">
+    <row r="57" spans="1:7" ht="16.2" x14ac:dyDescent="0.3">
       <c r="A57" s="35"/>
       <c r="B57" s="44"/>
       <c r="C57" s="36" t="s">
         <v>70</v>
       </c>
       <c r="D57" s="37" t="s">
-        <v>67</v>
+        <v>46</v>
       </c>
       <c r="E57" s="38"/>
       <c r="F57" s="38"/>
       <c r="G57" s="51"/>
     </row>
-    <row r="58" spans="1:7" ht="16.149999999999999">
+    <row r="58" spans="1:7" ht="16.2" x14ac:dyDescent="0.3">
       <c r="A58" s="35"/>
       <c r="B58" s="44"/>
       <c r="C58" s="36" t="s">
         <v>71</v>
       </c>
       <c r="D58" s="37" t="s">
-        <v>67</v>
+        <v>46</v>
       </c>
       <c r="E58" s="38"/>
       <c r="F58" s="38"/>
       <c r="G58" s="51"/>
     </row>
-    <row r="59" spans="1:7" ht="16.149999999999999">
+    <row r="59" spans="1:7" ht="16.2" x14ac:dyDescent="0.3">
       <c r="A59" s="35"/>
       <c r="B59" s="44"/>
       <c r="C59" s="36" t="s">
         <v>72</v>
       </c>
       <c r="D59" s="37" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="E59" s="38"/>
       <c r="F59" s="38"/>
       <c r="G59" s="51"/>
     </row>
-    <row r="60" spans="1:7" ht="16.149999999999999">
+    <row r="60" spans="1:7" ht="16.2" x14ac:dyDescent="0.3">
       <c r="A60" s="35"/>
       <c r="B60" s="44"/>
       <c r="C60" s="36" t="s">
@@ -2914,7 +3059,7 @@
       <c r="F60" s="38"/>
       <c r="G60" s="51"/>
     </row>
-    <row r="61" spans="1:7" ht="16.149999999999999">
+    <row r="61" spans="1:7" ht="16.2" x14ac:dyDescent="0.3">
       <c r="A61" s="35"/>
       <c r="B61" s="44"/>
       <c r="C61" s="36" t="s">
@@ -2927,7 +3072,7 @@
       <c r="F61" s="38"/>
       <c r="G61" s="51"/>
     </row>
-    <row r="62" spans="1:7" ht="16.149999999999999">
+    <row r="62" spans="1:7" ht="16.2" x14ac:dyDescent="0.3">
       <c r="A62" s="35"/>
       <c r="B62" s="44"/>
       <c r="C62" s="36" t="s">
@@ -2940,7 +3085,7 @@
       <c r="F62" s="38"/>
       <c r="G62" s="51"/>
     </row>
-    <row r="63" spans="1:7" ht="16.149999999999999">
+    <row r="63" spans="1:7" ht="16.2" x14ac:dyDescent="0.3">
       <c r="A63" s="35"/>
       <c r="B63" s="44"/>
       <c r="C63" s="36" t="s">
@@ -2953,7 +3098,7 @@
       <c r="F63" s="38"/>
       <c r="G63" s="51"/>
     </row>
-    <row r="64" spans="1:7" ht="16.149999999999999">
+    <row r="64" spans="1:7" ht="16.2" x14ac:dyDescent="0.3">
       <c r="A64" s="35"/>
       <c r="B64" s="44"/>
       <c r="C64" s="36" t="s">
@@ -2966,7 +3111,7 @@
       <c r="F64" s="38"/>
       <c r="G64" s="51"/>
     </row>
-    <row r="65" spans="1:7" ht="16.149999999999999">
+    <row r="65" spans="1:7" ht="16.2" x14ac:dyDescent="0.3">
       <c r="A65" s="35"/>
       <c r="B65" s="44"/>
       <c r="C65" s="36" t="s">
@@ -2979,7 +3124,7 @@
       <c r="F65" s="38"/>
       <c r="G65" s="51"/>
     </row>
-    <row r="66" spans="1:7" ht="16.149999999999999">
+    <row r="66" spans="1:7" ht="16.2" x14ac:dyDescent="0.3">
       <c r="A66" s="35"/>
       <c r="B66" s="44"/>
       <c r="C66" s="36" t="s">
@@ -2992,7 +3137,7 @@
       <c r="F66" s="38"/>
       <c r="G66" s="51"/>
     </row>
-    <row r="67" spans="1:7" ht="16.149999999999999">
+    <row r="67" spans="1:7" ht="16.2" x14ac:dyDescent="0.3">
       <c r="A67" s="35"/>
       <c r="B67" s="44"/>
       <c r="C67" s="36" t="s">
@@ -3005,7 +3150,7 @@
       <c r="F67" s="38"/>
       <c r="G67" s="51"/>
     </row>
-    <row r="68" spans="1:7" ht="16.149999999999999">
+    <row r="68" spans="1:7" ht="16.2" x14ac:dyDescent="0.3">
       <c r="A68" s="35"/>
       <c r="B68" s="44"/>
       <c r="C68" s="36" t="s">
@@ -3018,7 +3163,7 @@
       <c r="F68" s="38"/>
       <c r="G68" s="51"/>
     </row>
-    <row r="69" spans="1:7" ht="16.149999999999999">
+    <row r="69" spans="1:7" ht="16.2" x14ac:dyDescent="0.3">
       <c r="A69" s="35"/>
       <c r="B69" s="44"/>
       <c r="C69" s="36" t="s">
@@ -3031,7 +3176,7 @@
       <c r="F69" s="38"/>
       <c r="G69" s="51"/>
     </row>
-    <row r="70" spans="1:7" ht="16.149999999999999">
+    <row r="70" spans="1:7" ht="16.2" x14ac:dyDescent="0.3">
       <c r="A70" s="35"/>
       <c r="B70" s="44"/>
       <c r="C70" s="36" t="s">
@@ -3044,7 +3189,7 @@
       <c r="F70" s="38"/>
       <c r="G70" s="51"/>
     </row>
-    <row r="71" spans="1:7" ht="16.149999999999999">
+    <row r="71" spans="1:7" ht="16.2" x14ac:dyDescent="0.3">
       <c r="A71" s="35"/>
       <c r="B71" s="44"/>
       <c r="C71" s="36" t="s">
@@ -3057,7 +3202,7 @@
       <c r="F71" s="38"/>
       <c r="G71" s="51"/>
     </row>
-    <row r="72" spans="1:7" ht="16.149999999999999">
+    <row r="72" spans="1:7" ht="16.2" x14ac:dyDescent="0.3">
       <c r="A72" s="35"/>
       <c r="B72" s="44"/>
       <c r="C72" s="36" t="s">
@@ -3070,7 +3215,7 @@
       <c r="F72" s="38"/>
       <c r="G72" s="51"/>
     </row>
-    <row r="73" spans="1:7" ht="16.899999999999999" thickBot="1">
+    <row r="73" spans="1:7" ht="16.8" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A73" s="39"/>
       <c r="B73" s="46"/>
       <c r="C73" s="46"/>
@@ -3080,6 +3225,288 @@
       <c r="G73" s="7" t="s">
         <v>86</v>
       </c>
+    </row>
+    <row r="75" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="E75" s="60"/>
+    </row>
+    <row r="76" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="C76" s="61" t="s">
+        <v>152</v>
+      </c>
+      <c r="D76" s="61" t="s">
+        <v>9</v>
+      </c>
+      <c r="E76" s="60"/>
+    </row>
+    <row r="77" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="C77" s="61" t="s">
+        <v>153</v>
+      </c>
+      <c r="D77" s="61" t="s">
+        <v>9</v>
+      </c>
+      <c r="E77" s="60"/>
+    </row>
+    <row r="78" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="C78" s="61" t="s">
+        <v>48</v>
+      </c>
+      <c r="D78" s="61" t="s">
+        <v>9</v>
+      </c>
+      <c r="E78" s="60"/>
+    </row>
+    <row r="79" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="C79" s="61" t="s">
+        <v>154</v>
+      </c>
+      <c r="D79" s="61" t="s">
+        <v>9</v>
+      </c>
+      <c r="E79" s="60"/>
+    </row>
+    <row r="80" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="C80" s="61" t="s">
+        <v>51</v>
+      </c>
+      <c r="D80" s="61" t="s">
+        <v>9</v>
+      </c>
+      <c r="E80" s="60"/>
+    </row>
+    <row r="81" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C81" s="61" t="s">
+        <v>155</v>
+      </c>
+      <c r="D81" s="61" t="s">
+        <v>9</v>
+      </c>
+      <c r="E81" s="60"/>
+    </row>
+    <row r="82" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C82" s="61" t="s">
+        <v>156</v>
+      </c>
+      <c r="D82" s="61" t="s">
+        <v>9</v>
+      </c>
+      <c r="E82" s="60"/>
+    </row>
+    <row r="83" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C83" s="61" t="s">
+        <v>157</v>
+      </c>
+      <c r="D83" s="61" t="s">
+        <v>9</v>
+      </c>
+      <c r="E83" s="60"/>
+    </row>
+    <row r="84" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C84" s="61" t="s">
+        <v>56</v>
+      </c>
+      <c r="D84" s="61" t="s">
+        <v>9</v>
+      </c>
+      <c r="E84" s="60"/>
+    </row>
+    <row r="85" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C85" s="61" t="s">
+        <v>75</v>
+      </c>
+      <c r="D85" s="61" t="s">
+        <v>9</v>
+      </c>
+      <c r="E85" s="60"/>
+    </row>
+    <row r="86" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C86" s="61" t="s">
+        <v>158</v>
+      </c>
+      <c r="D86" s="61" t="s">
+        <v>9</v>
+      </c>
+      <c r="E86" s="60"/>
+    </row>
+    <row r="87" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C87" s="61" t="s">
+        <v>159</v>
+      </c>
+      <c r="D87" s="61" t="s">
+        <v>9</v>
+      </c>
+      <c r="E87" s="60"/>
+    </row>
+    <row r="88" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C88" s="61" t="s">
+        <v>160</v>
+      </c>
+      <c r="D88" s="61" t="s">
+        <v>9</v>
+      </c>
+      <c r="E88" s="60"/>
+    </row>
+    <row r="89" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C89" s="61" t="s">
+        <v>161</v>
+      </c>
+      <c r="D89" s="61" t="s">
+        <v>15</v>
+      </c>
+      <c r="E89" s="60"/>
+    </row>
+    <row r="90" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C90" s="61" t="s">
+        <v>62</v>
+      </c>
+      <c r="D90" s="61" t="s">
+        <v>15</v>
+      </c>
+      <c r="E90" s="60"/>
+    </row>
+    <row r="91" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C91" s="61" t="s">
+        <v>162</v>
+      </c>
+      <c r="D91" s="61" t="s">
+        <v>15</v>
+      </c>
+      <c r="E91" s="60"/>
+    </row>
+    <row r="92" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C92" s="61" t="s">
+        <v>64</v>
+      </c>
+      <c r="D92" s="61" t="s">
+        <v>15</v>
+      </c>
+      <c r="E92" s="60"/>
+    </row>
+    <row r="93" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C93" s="61" t="s">
+        <v>66</v>
+      </c>
+      <c r="D93" s="61" t="s">
+        <v>15</v>
+      </c>
+      <c r="E93" s="60"/>
+    </row>
+    <row r="94" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C94" s="61" t="s">
+        <v>163</v>
+      </c>
+      <c r="D94" s="61" t="s">
+        <v>15</v>
+      </c>
+      <c r="E94" s="60"/>
+    </row>
+    <row r="95" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C95" s="61" t="s">
+        <v>69</v>
+      </c>
+      <c r="D95" s="61" t="s">
+        <v>15</v>
+      </c>
+      <c r="E95" s="60"/>
+    </row>
+    <row r="96" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C96" s="61" t="s">
+        <v>70</v>
+      </c>
+      <c r="D96" s="61" t="s">
+        <v>15</v>
+      </c>
+      <c r="E96" s="60"/>
+    </row>
+    <row r="97" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C97" s="61" t="s">
+        <v>164</v>
+      </c>
+      <c r="D97" s="61" t="s">
+        <v>15</v>
+      </c>
+      <c r="E97" s="60"/>
+    </row>
+    <row r="98" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C98" s="61" t="s">
+        <v>165</v>
+      </c>
+      <c r="D98" s="61" t="s">
+        <v>15</v>
+      </c>
+      <c r="E98" s="60"/>
+    </row>
+    <row r="99" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C99" s="61" t="s">
+        <v>166</v>
+      </c>
+      <c r="D99" s="61" t="s">
+        <v>15</v>
+      </c>
+      <c r="E99" s="60"/>
+    </row>
+    <row r="100" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C100" s="61" t="s">
+        <v>167</v>
+      </c>
+      <c r="D100" s="61" t="s">
+        <v>15</v>
+      </c>
+      <c r="E100" s="60"/>
+    </row>
+    <row r="101" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C101" s="61" t="s">
+        <v>168</v>
+      </c>
+      <c r="D101" s="61" t="s">
+        <v>15</v>
+      </c>
+      <c r="E101" s="60"/>
+    </row>
+    <row r="102" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C102" s="61" t="s">
+        <v>169</v>
+      </c>
+      <c r="D102" s="61" t="s">
+        <v>15</v>
+      </c>
+      <c r="E102" s="60"/>
+    </row>
+    <row r="103" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C103" s="61" t="s">
+        <v>34</v>
+      </c>
+      <c r="D103" s="61" t="s">
+        <v>9</v>
+      </c>
+      <c r="E103" s="60"/>
+    </row>
+    <row r="104" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C104" s="61" t="s">
+        <v>170</v>
+      </c>
+      <c r="D104" s="61" t="s">
+        <v>9</v>
+      </c>
+      <c r="E104" s="60"/>
+    </row>
+    <row r="105" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C105" s="61" t="s">
+        <v>61</v>
+      </c>
+      <c r="D105" s="61" t="s">
+        <v>9</v>
+      </c>
+      <c r="E105" s="60"/>
+    </row>
+    <row r="106" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C106" s="61" t="s">
+        <v>82</v>
+      </c>
+      <c r="D106" s="61" t="s">
+        <v>9</v>
+      </c>
+      <c r="E106" s="60"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -3091,8 +3518,9 @@
     <mergeCell ref="G30:G32"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <tableParts count="1">
+  <tableParts count="2">
     <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
 </file>
@@ -3105,18 +3533,18 @@
       <selection activeCell="E61" sqref="E61"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.45"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="2.28515625" style="6" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="30.85546875" style="6" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="43.42578125" style="6" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="25.85546875" style="6" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="22.140625" style="6" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="28.28515625" style="6" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="32.140625" style="6" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="2.33203125" style="6" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="30.88671875" style="6" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="43.44140625" style="6" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="25.88671875" style="6" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="22.109375" style="6" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="28.33203125" style="6" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="32.109375" style="6" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="15" thickBot="1">
+    <row r="1" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
@@ -3137,7 +3565,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="15" thickBot="1">
+    <row r="2" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="1"/>
       <c r="B2" s="3" t="s">
         <v>87</v>
@@ -3150,7 +3578,7 @@
       <c r="F2" s="4"/>
       <c r="G2" s="4"/>
     </row>
-    <row r="3" spans="1:7" ht="16.149999999999999">
+    <row r="3" spans="1:7" ht="16.2" x14ac:dyDescent="0.3">
       <c r="A3" s="13">
         <v>1</v>
       </c>
@@ -3171,7 +3599,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="16.149999999999999">
+    <row r="4" spans="1:7" ht="16.2" x14ac:dyDescent="0.3">
       <c r="A4" s="9"/>
       <c r="B4" s="9"/>
       <c r="C4" s="10" t="s">
@@ -3182,7 +3610,7 @@
       <c r="F4" s="22"/>
       <c r="G4" s="51"/>
     </row>
-    <row r="5" spans="1:7" ht="16.149999999999999">
+    <row r="5" spans="1:7" ht="16.2" x14ac:dyDescent="0.3">
       <c r="A5" s="9"/>
       <c r="B5" s="9"/>
       <c r="C5" s="10" t="s">
@@ -3193,7 +3621,7 @@
       <c r="F5" s="22"/>
       <c r="G5" s="51"/>
     </row>
-    <row r="6" spans="1:7" ht="16.149999999999999">
+    <row r="6" spans="1:7" ht="16.2" x14ac:dyDescent="0.3">
       <c r="A6" s="9"/>
       <c r="B6" s="9"/>
       <c r="C6" s="10" t="s">
@@ -3204,7 +3632,7 @@
       <c r="F6" s="22"/>
       <c r="G6" s="51"/>
     </row>
-    <row r="7" spans="1:7" ht="16.149999999999999">
+    <row r="7" spans="1:7" ht="16.2" x14ac:dyDescent="0.3">
       <c r="A7" s="9"/>
       <c r="B7" s="9"/>
       <c r="C7" s="10" t="s">
@@ -3215,7 +3643,7 @@
       <c r="F7" s="22"/>
       <c r="G7" s="51"/>
     </row>
-    <row r="8" spans="1:7" ht="16.149999999999999">
+    <row r="8" spans="1:7" ht="16.2" x14ac:dyDescent="0.3">
       <c r="A8" s="9"/>
       <c r="B8" s="9"/>
       <c r="C8" s="10" t="s">
@@ -3226,7 +3654,7 @@
       <c r="F8" s="22"/>
       <c r="G8" s="51"/>
     </row>
-    <row r="9" spans="1:7" ht="16.149999999999999">
+    <row r="9" spans="1:7" ht="16.2" x14ac:dyDescent="0.3">
       <c r="A9" s="9"/>
       <c r="B9" s="9"/>
       <c r="C9" s="10" t="s">
@@ -3237,7 +3665,7 @@
       <c r="F9" s="22"/>
       <c r="G9" s="51"/>
     </row>
-    <row r="10" spans="1:7" ht="16.149999999999999">
+    <row r="10" spans="1:7" ht="16.2" x14ac:dyDescent="0.3">
       <c r="A10" s="9"/>
       <c r="B10" s="9"/>
       <c r="C10" s="10" t="s">
@@ -3248,7 +3676,7 @@
       <c r="F10" s="22"/>
       <c r="G10" s="51"/>
     </row>
-    <row r="11" spans="1:7" ht="16.899999999999999" thickBot="1">
+    <row r="11" spans="1:7" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="16"/>
       <c r="B11" s="16"/>
       <c r="C11" s="17" t="s">
@@ -3259,7 +3687,7 @@
       <c r="F11" s="23"/>
       <c r="G11" s="55"/>
     </row>
-    <row r="12" spans="1:7" ht="16.149999999999999">
+    <row r="12" spans="1:7" ht="16.2" x14ac:dyDescent="0.3">
       <c r="A12" s="13">
         <v>2</v>
       </c>
@@ -3278,7 +3706,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="16.149999999999999">
+    <row r="13" spans="1:7" ht="16.2" x14ac:dyDescent="0.3">
       <c r="A13" s="9"/>
       <c r="B13" s="9"/>
       <c r="C13" s="10" t="s">
@@ -3291,7 +3719,7 @@
       <c r="F13" s="22"/>
       <c r="G13" s="53"/>
     </row>
-    <row r="14" spans="1:7" ht="16.149999999999999">
+    <row r="14" spans="1:7" ht="16.2" x14ac:dyDescent="0.3">
       <c r="A14" s="9"/>
       <c r="B14" s="9"/>
       <c r="C14" s="10" t="s">
@@ -3302,7 +3730,7 @@
       <c r="F14" s="22"/>
       <c r="G14" s="53"/>
     </row>
-    <row r="15" spans="1:7" ht="16.149999999999999">
+    <row r="15" spans="1:7" ht="16.2" x14ac:dyDescent="0.3">
       <c r="A15" s="9"/>
       <c r="B15" s="9"/>
       <c r="C15" s="9" t="s">
@@ -3313,7 +3741,7 @@
       <c r="F15" s="22"/>
       <c r="G15" s="53"/>
     </row>
-    <row r="16" spans="1:7" ht="16.149999999999999">
+    <row r="16" spans="1:7" ht="16.2" x14ac:dyDescent="0.3">
       <c r="A16" s="9"/>
       <c r="B16" s="9"/>
       <c r="C16" s="10" t="s">
@@ -3324,7 +3752,7 @@
       <c r="F16" s="22"/>
       <c r="G16" s="53"/>
     </row>
-    <row r="17" spans="1:7" ht="16.899999999999999" thickBot="1">
+    <row r="17" spans="1:7" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A17" s="16"/>
       <c r="B17" s="16"/>
       <c r="C17" s="17" t="s">
@@ -3335,7 +3763,7 @@
       <c r="F17" s="23"/>
       <c r="G17" s="54"/>
     </row>
-    <row r="18" spans="1:7" ht="16.149999999999999">
+    <row r="18" spans="1:7" ht="16.2" x14ac:dyDescent="0.3">
       <c r="A18" s="13">
         <v>3</v>
       </c>
@@ -3354,7 +3782,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="16.149999999999999">
+    <row r="19" spans="1:7" ht="16.2" x14ac:dyDescent="0.3">
       <c r="A19" s="9"/>
       <c r="B19" s="9"/>
       <c r="C19" s="10" t="s">
@@ -3365,7 +3793,7 @@
       <c r="F19" s="22"/>
       <c r="G19" s="53"/>
     </row>
-    <row r="20" spans="1:7" ht="16.149999999999999">
+    <row r="20" spans="1:7" ht="16.2" x14ac:dyDescent="0.3">
       <c r="A20" s="9"/>
       <c r="B20" s="9"/>
       <c r="C20" s="10" t="s">
@@ -3376,7 +3804,7 @@
       <c r="F20" s="22"/>
       <c r="G20" s="53"/>
     </row>
-    <row r="21" spans="1:7" ht="16.149999999999999">
+    <row r="21" spans="1:7" ht="16.2" x14ac:dyDescent="0.3">
       <c r="A21" s="9"/>
       <c r="B21" s="9"/>
       <c r="C21" s="10" t="s">
@@ -3387,7 +3815,7 @@
       <c r="F21" s="22"/>
       <c r="G21" s="53"/>
     </row>
-    <row r="22" spans="1:7">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A22" s="9"/>
       <c r="B22" s="9"/>
       <c r="C22" s="10" t="s">
@@ -3398,7 +3826,7 @@
       <c r="F22" s="48"/>
       <c r="G22" s="53"/>
     </row>
-    <row r="23" spans="1:7">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A23" s="9"/>
       <c r="B23" s="9"/>
       <c r="C23" s="10" t="s">
@@ -3409,7 +3837,7 @@
       <c r="F23" s="48"/>
       <c r="G23" s="53"/>
     </row>
-    <row r="24" spans="1:7">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A24" s="9"/>
       <c r="B24" s="9"/>
       <c r="C24" s="10" t="s">
@@ -3420,7 +3848,7 @@
       <c r="F24" s="49"/>
       <c r="G24" s="53"/>
     </row>
-    <row r="25" spans="1:7" ht="16.149999999999999">
+    <row r="25" spans="1:7" ht="16.2" x14ac:dyDescent="0.3">
       <c r="A25" s="9"/>
       <c r="B25" s="9"/>
       <c r="C25" s="10" t="s">
@@ -3431,7 +3859,7 @@
       <c r="F25" s="22"/>
       <c r="G25" s="53"/>
     </row>
-    <row r="26" spans="1:7" ht="16.149999999999999">
+    <row r="26" spans="1:7" ht="16.2" x14ac:dyDescent="0.3">
       <c r="A26" s="9"/>
       <c r="B26" s="9"/>
       <c r="C26" s="10" t="s">
@@ -3442,7 +3870,7 @@
       <c r="F26" s="22"/>
       <c r="G26" s="53"/>
     </row>
-    <row r="27" spans="1:7" ht="16.149999999999999">
+    <row r="27" spans="1:7" ht="16.2" x14ac:dyDescent="0.3">
       <c r="A27" s="9"/>
       <c r="B27" s="9"/>
       <c r="C27" s="10" t="s">
@@ -3453,7 +3881,7 @@
       <c r="F27" s="22"/>
       <c r="G27" s="53"/>
     </row>
-    <row r="28" spans="1:7" ht="16.149999999999999">
+    <row r="28" spans="1:7" ht="16.2" x14ac:dyDescent="0.3">
       <c r="A28" s="9"/>
       <c r="B28" s="9"/>
       <c r="C28" s="10" t="s">
@@ -3464,7 +3892,7 @@
       <c r="F28" s="22"/>
       <c r="G28" s="53"/>
     </row>
-    <row r="29" spans="1:7" ht="16.149999999999999">
+    <row r="29" spans="1:7" ht="16.2" x14ac:dyDescent="0.3">
       <c r="A29" s="9"/>
       <c r="B29" s="9"/>
       <c r="C29" s="10" t="s">
@@ -3475,7 +3903,7 @@
       <c r="F29" s="22"/>
       <c r="G29" s="53"/>
     </row>
-    <row r="30" spans="1:7" ht="16.149999999999999">
+    <row r="30" spans="1:7" ht="16.2" x14ac:dyDescent="0.3">
       <c r="A30" s="9"/>
       <c r="B30" s="9"/>
       <c r="C30" s="10" t="s">
@@ -3486,7 +3914,7 @@
       <c r="F30" s="22"/>
       <c r="G30" s="53"/>
     </row>
-    <row r="31" spans="1:7" ht="16.899999999999999" thickBot="1">
+    <row r="31" spans="1:7" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A31" s="16"/>
       <c r="B31" s="16"/>
       <c r="C31" s="17" t="s">
@@ -3497,7 +3925,7 @@
       <c r="F31" s="23"/>
       <c r="G31" s="54"/>
     </row>
-    <row r="32" spans="1:7" ht="16.149999999999999">
+    <row r="32" spans="1:7" ht="16.2" x14ac:dyDescent="0.3">
       <c r="A32" s="13">
         <v>4</v>
       </c>
@@ -3518,7 +3946,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="33" spans="1:7" ht="16.149999999999999">
+    <row r="33" spans="1:7" ht="16.2" x14ac:dyDescent="0.3">
       <c r="A33" s="9"/>
       <c r="B33" s="9"/>
       <c r="C33" s="10" t="s">
@@ -3529,7 +3957,7 @@
       <c r="F33" s="22"/>
       <c r="G33" s="53"/>
     </row>
-    <row r="34" spans="1:7" ht="16.149999999999999">
+    <row r="34" spans="1:7" ht="16.2" x14ac:dyDescent="0.3">
       <c r="A34" s="9"/>
       <c r="B34" s="9"/>
       <c r="C34" s="10" t="s">
@@ -3540,7 +3968,7 @@
       <c r="F34" s="22"/>
       <c r="G34" s="53"/>
     </row>
-    <row r="35" spans="1:7" ht="16.149999999999999">
+    <row r="35" spans="1:7" ht="16.2" x14ac:dyDescent="0.3">
       <c r="A35" s="9"/>
       <c r="B35" s="9"/>
       <c r="C35" s="10" t="s">
@@ -3551,7 +3979,7 @@
       <c r="F35" s="22"/>
       <c r="G35" s="53"/>
     </row>
-    <row r="36" spans="1:7" ht="16.149999999999999">
+    <row r="36" spans="1:7" ht="16.2" x14ac:dyDescent="0.3">
       <c r="A36" s="9"/>
       <c r="B36" s="9"/>
       <c r="C36" s="10" t="s">
@@ -3562,7 +3990,7 @@
       <c r="F36" s="22"/>
       <c r="G36" s="53"/>
     </row>
-    <row r="37" spans="1:7" ht="16.149999999999999">
+    <row r="37" spans="1:7" ht="16.2" x14ac:dyDescent="0.3">
       <c r="A37" s="9"/>
       <c r="B37" s="9"/>
       <c r="C37" s="10" t="s">
@@ -3573,7 +4001,7 @@
       <c r="F37" s="22"/>
       <c r="G37" s="53"/>
     </row>
-    <row r="38" spans="1:7" ht="16.149999999999999">
+    <row r="38" spans="1:7" ht="16.2" x14ac:dyDescent="0.3">
       <c r="A38" s="9"/>
       <c r="B38" s="9"/>
       <c r="C38" s="10" t="s">
@@ -3584,7 +4012,7 @@
       <c r="F38" s="22"/>
       <c r="G38" s="53"/>
     </row>
-    <row r="39" spans="1:7" ht="16.899999999999999" thickBot="1">
+    <row r="39" spans="1:7" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A39" s="16"/>
       <c r="B39" s="16"/>
       <c r="C39" s="17" t="s">
@@ -3595,7 +4023,7 @@
       <c r="F39" s="23"/>
       <c r="G39" s="54"/>
     </row>
-    <row r="40" spans="1:7" ht="16.149999999999999">
+    <row r="40" spans="1:7" ht="16.2" x14ac:dyDescent="0.3">
       <c r="A40" s="13">
         <v>7</v>
       </c>
@@ -3614,7 +4042,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="41" spans="1:7" ht="16.149999999999999">
+    <row r="41" spans="1:7" ht="16.2" x14ac:dyDescent="0.3">
       <c r="A41" s="9"/>
       <c r="B41" s="9"/>
       <c r="C41" s="10" t="s">
@@ -3625,7 +4053,7 @@
       <c r="F41" s="22"/>
       <c r="G41" s="53"/>
     </row>
-    <row r="42" spans="1:7" ht="16.149999999999999">
+    <row r="42" spans="1:7" ht="16.2" x14ac:dyDescent="0.3">
       <c r="A42" s="9"/>
       <c r="B42" s="9"/>
       <c r="C42" s="10" t="s">
@@ -3636,7 +4064,7 @@
       <c r="F42" s="22"/>
       <c r="G42" s="53"/>
     </row>
-    <row r="43" spans="1:7" ht="16.149999999999999">
+    <row r="43" spans="1:7" ht="16.2" x14ac:dyDescent="0.3">
       <c r="A43" s="9"/>
       <c r="B43" s="9"/>
       <c r="C43" s="10" t="s">
@@ -3647,7 +4075,7 @@
       <c r="F43" s="22"/>
       <c r="G43" s="53"/>
     </row>
-    <row r="44" spans="1:7" ht="16.149999999999999">
+    <row r="44" spans="1:7" ht="16.2" x14ac:dyDescent="0.3">
       <c r="A44" s="9"/>
       <c r="B44" s="9"/>
       <c r="C44" s="10" t="s">
@@ -3658,7 +4086,7 @@
       <c r="F44" s="22"/>
       <c r="G44" s="53"/>
     </row>
-    <row r="45" spans="1:7" ht="16.149999999999999">
+    <row r="45" spans="1:7" ht="16.2" x14ac:dyDescent="0.3">
       <c r="A45" s="9"/>
       <c r="B45" s="9"/>
       <c r="C45" s="10" t="s">
@@ -3669,7 +4097,7 @@
       <c r="F45" s="22"/>
       <c r="G45" s="53"/>
     </row>
-    <row r="46" spans="1:7" ht="16.899999999999999" thickBot="1">
+    <row r="46" spans="1:7" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A46" s="16"/>
       <c r="B46" s="16"/>
       <c r="C46" s="17" t="s">
@@ -3680,7 +4108,7 @@
       <c r="F46" s="23"/>
       <c r="G46" s="54"/>
     </row>
-    <row r="47" spans="1:7" ht="16.149999999999999">
+    <row r="47" spans="1:7" ht="16.2" x14ac:dyDescent="0.3">
       <c r="A47" s="13">
         <v>5</v>
       </c>
@@ -3699,7 +4127,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="48" spans="1:7" ht="16.149999999999999">
+    <row r="48" spans="1:7" ht="16.2" x14ac:dyDescent="0.3">
       <c r="A48" s="9"/>
       <c r="B48" s="9"/>
       <c r="C48" s="10" t="s">
@@ -3710,7 +4138,7 @@
       <c r="F48" s="22"/>
       <c r="G48" s="51"/>
     </row>
-    <row r="49" spans="1:7" ht="16.149999999999999">
+    <row r="49" spans="1:7" ht="16.2" x14ac:dyDescent="0.3">
       <c r="A49" s="9"/>
       <c r="B49" s="9"/>
       <c r="C49" s="10" t="s">
@@ -3721,7 +4149,7 @@
       <c r="F49" s="22"/>
       <c r="G49" s="51"/>
     </row>
-    <row r="50" spans="1:7" ht="16.899999999999999" thickBot="1">
+    <row r="50" spans="1:7" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A50" s="16"/>
       <c r="B50" s="16"/>
       <c r="C50" s="17" t="s">
@@ -3734,7 +4162,7 @@
       </c>
       <c r="G50" s="55"/>
     </row>
-    <row r="51" spans="1:7" ht="16.149999999999999">
+    <row r="51" spans="1:7" ht="16.2" x14ac:dyDescent="0.3">
       <c r="A51" s="32">
         <v>6</v>
       </c>
@@ -3757,7 +4185,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="52" spans="1:7" ht="16.149999999999999">
+    <row r="52" spans="1:7" ht="16.2" x14ac:dyDescent="0.3">
       <c r="A52" s="35"/>
       <c r="B52" s="36"/>
       <c r="C52" s="36" t="s">
@@ -3768,7 +4196,7 @@
       <c r="F52" s="38"/>
       <c r="G52" s="58"/>
     </row>
-    <row r="53" spans="1:7" ht="16.899999999999999" thickBot="1">
+    <row r="53" spans="1:7" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A53" s="39"/>
       <c r="B53" s="40"/>
       <c r="C53" s="40" t="s">
@@ -3779,7 +4207,7 @@
       <c r="F53" s="42"/>
       <c r="G53" s="59"/>
     </row>
-    <row r="54" spans="1:7" ht="16.149999999999999">
+    <row r="54" spans="1:7" ht="16.2" x14ac:dyDescent="0.3">
       <c r="A54" s="13">
         <v>8</v>
       </c>
@@ -3800,7 +4228,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="55" spans="1:7" ht="16.149999999999999">
+    <row r="55" spans="1:7" ht="16.2" x14ac:dyDescent="0.3">
       <c r="A55" s="9"/>
       <c r="B55" s="9"/>
       <c r="C55" s="9" t="s">
@@ -3811,7 +4239,7 @@
       <c r="F55" s="22"/>
       <c r="G55" s="51"/>
     </row>
-    <row r="56" spans="1:7" ht="16.149999999999999">
+    <row r="56" spans="1:7" ht="16.2" x14ac:dyDescent="0.3">
       <c r="A56" s="9"/>
       <c r="B56" s="9"/>
       <c r="C56" s="9" t="s">
@@ -3822,7 +4250,7 @@
       <c r="F56" s="22"/>
       <c r="G56" s="51"/>
     </row>
-    <row r="57" spans="1:7" ht="16.149999999999999">
+    <row r="57" spans="1:7" ht="16.2" x14ac:dyDescent="0.3">
       <c r="A57" s="9"/>
       <c r="B57" s="9"/>
       <c r="C57" s="9" t="s">
@@ -3833,7 +4261,7 @@
       <c r="F57" s="22"/>
       <c r="G57" s="51"/>
     </row>
-    <row r="58" spans="1:7" ht="16.149999999999999">
+    <row r="58" spans="1:7" ht="16.2" x14ac:dyDescent="0.3">
       <c r="A58" s="9"/>
       <c r="B58" s="9"/>
       <c r="C58" s="9" t="s">
@@ -3844,7 +4272,7 @@
       <c r="F58" s="22"/>
       <c r="G58" s="51"/>
     </row>
-    <row r="59" spans="1:7" ht="16.149999999999999">
+    <row r="59" spans="1:7" ht="16.2" x14ac:dyDescent="0.3">
       <c r="A59" s="9"/>
       <c r="B59" s="9"/>
       <c r="C59" s="9" t="s">
@@ -3855,7 +4283,7 @@
       <c r="F59" s="22"/>
       <c r="G59" s="51"/>
     </row>
-    <row r="60" spans="1:7" ht="16.149999999999999">
+    <row r="60" spans="1:7" ht="16.2" x14ac:dyDescent="0.3">
       <c r="A60" s="9"/>
       <c r="B60" s="9"/>
       <c r="C60" s="9" t="s">
@@ -3866,7 +4294,7 @@
       <c r="F60" s="22"/>
       <c r="G60" s="51"/>
     </row>
-    <row r="61" spans="1:7" ht="16.149999999999999">
+    <row r="61" spans="1:7" ht="16.2" x14ac:dyDescent="0.3">
       <c r="A61" s="9"/>
       <c r="B61" s="9"/>
       <c r="C61" s="9" t="s">
@@ -3877,7 +4305,7 @@
       <c r="F61" s="22"/>
       <c r="G61" s="51"/>
     </row>
-    <row r="62" spans="1:7" ht="16.149999999999999">
+    <row r="62" spans="1:7" ht="16.2" x14ac:dyDescent="0.3">
       <c r="A62" s="9"/>
       <c r="B62" s="9"/>
       <c r="C62" s="9" t="s">
@@ -3888,7 +4316,7 @@
       <c r="F62" s="22"/>
       <c r="G62" s="51"/>
     </row>
-    <row r="63" spans="1:7" ht="16.149999999999999">
+    <row r="63" spans="1:7" ht="16.2" x14ac:dyDescent="0.3">
       <c r="A63" s="9"/>
       <c r="B63" s="9"/>
       <c r="C63" s="9" t="s">
@@ -3899,7 +4327,7 @@
       <c r="F63" s="22"/>
       <c r="G63" s="51"/>
     </row>
-    <row r="64" spans="1:7" ht="16.149999999999999">
+    <row r="64" spans="1:7" ht="16.2" x14ac:dyDescent="0.3">
       <c r="A64" s="9"/>
       <c r="B64" s="9"/>
       <c r="C64" s="9" t="s">
@@ -3910,7 +4338,7 @@
       <c r="F64" s="22"/>
       <c r="G64" s="51"/>
     </row>
-    <row r="65" spans="1:7" ht="16.149999999999999">
+    <row r="65" spans="1:7" ht="16.2" x14ac:dyDescent="0.3">
       <c r="A65" s="9"/>
       <c r="B65" s="9"/>
       <c r="C65" s="9" t="s">
@@ -3921,7 +4349,7 @@
       <c r="F65" s="22"/>
       <c r="G65" s="51"/>
     </row>
-    <row r="66" spans="1:7" ht="16.149999999999999">
+    <row r="66" spans="1:7" ht="16.2" x14ac:dyDescent="0.3">
       <c r="A66" s="9"/>
       <c r="B66" s="9"/>
       <c r="C66" s="9"/>
@@ -3930,7 +4358,7 @@
       <c r="F66" s="24"/>
       <c r="G66" s="56"/>
     </row>
-    <row r="67" spans="1:7" ht="16.899999999999999" thickBot="1">
+    <row r="67" spans="1:7" ht="16.8" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A67" s="19"/>
       <c r="B67" s="19"/>
       <c r="C67" s="19"/>
@@ -3960,6 +4388,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100842507ADD96D4E40B7E4136C639C5F8F" ma:contentTypeVersion="14" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="036eba5c83b8aaa523ea91dad332d953">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="feb9f2e5-9aa4-4afe-b066-fc8eac355301" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="9e573862b046b12c6e71b85f3d65eba7" ns3:_="">
     <xsd:import namespace="feb9f2e5-9aa4-4afe-b066-fc8eac355301"/>
@@ -4165,7 +4602,7 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <_activity xmlns="feb9f2e5-9aa4-4afe-b066-fc8eac355301" xsi:nil="true"/>
@@ -4176,23 +4613,38 @@
 </p:properties>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{55EF7553-E10F-4330-A184-E5E2E8A9489C}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5FD300AF-B45B-4A69-B510-289225CFE786}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A97D556A-F800-4929-B9A2-F7C47C6E0FD9}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{55EF7553-E10F-4330-A184-E5E2E8A9489C}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="feb9f2e5-9aa4-4afe-b066-fc8eac355301"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5FD300AF-B45B-4A69-B510-289225CFE786}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A97D556A-F800-4929-B9A2-F7C47C6E0FD9}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="feb9f2e5-9aa4-4afe-b066-fc8eac355301"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>